--- a/HelpDeskVG/ReportFiles/TICKETSNOTRESOLVED.xlsx
+++ b/HelpDeskVG/ReportFiles/TICKETSNOTRESOLVED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLID FIVE\source\repos\HelpDeskVG\HelpDeskVG\ReportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029A983-E04E-4521-9E54-3EF681D00756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC2C12-A7CA-4F19-B221-D7825D3A447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2A82976-CCF0-4881-A422-06A38CF5BF42}"/>
+    <workbookView xWindow="3330" yWindow="3735" windowWidth="22200" windowHeight="9810" xr2:uid="{D2A82976-CCF0-4881-A422-06A38CF5BF42}"/>
   </bookViews>
   <sheets>
     <sheet name="UnresolvedTicket" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TICKET CODE</t>
   </si>
@@ -71,10 +71,19 @@
     <t>DATE GIVEN TO THIRD PARTY</t>
   </si>
   <si>
-    <t>DATE RECEIVED TO THIRD PARTY</t>
-  </si>
-  <si>
     <t>TICKETS NOT RESOLVED</t>
+  </si>
+  <si>
+    <t>DATE RECEIVED FROM THIRD PARTY</t>
+  </si>
+  <si>
+    <t>PROPOSED REMARKS</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -453,34 +462,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81509FF1-49D6-4DD0-8296-CC90E345BC71}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="14" max="14" width="42.85546875" customWidth="1"/>
+    <col min="15" max="15" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,34 +500,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>11</v>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
